--- a/src/output/results.xlsx
+++ b/src/output/results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="74">
   <si>
     <t>mon</t>
   </si>
@@ -48,6 +48,26 @@
   </si>
   <si>
     <t>p5</t>
+  </si>
+  <si>
+    <t>bio
+spesh32
+bio2</t>
+  </si>
+  <si>
+    <t>chem
+spesh44
+chem2</t>
+  </si>
+  <si>
+    <t>math
+spesh4
+math4</t>
+  </si>
+  <si>
+    <t>geo
+spesh68
+geo4</t>
   </si>
   <si>
     <t>eng
@@ -55,29 +75,54 @@
 eng8</t>
   </si>
   <si>
+    <t>eng
+spesh12
+eng4</t>
+  </si>
+  <si>
+    <t>bio
+spesh36
+bio4</t>
+  </si>
+  <si>
+    <t>math
+spesh8
+math8</t>
+  </si>
+  <si>
+    <t>mus
+spesh56
+mus2</t>
+  </si>
+  <si>
+    <t>art
+spesh72
+art2</t>
+  </si>
+  <si>
     <t>his
 spesh64
 his4</t>
   </si>
   <si>
-    <t>math
-spesh4
-math4</t>
+    <t>phy
+spesh20
+phy2</t>
   </si>
   <si>
     <t>chem
-spesh52
-chem6</t>
-  </si>
-  <si>
-    <t>math
-spesh8
-math8</t>
-  </si>
-  <si>
-    <t>geo
-spesh68
-geo4</t>
+spesh48
+chem4</t>
+  </si>
+  <si>
+    <t>phy
+spesh28
+phy6</t>
+  </si>
+  <si>
+    <t>ict
+spesh60
+ict2</t>
   </si>
   <si>
     <t>phy
@@ -85,39 +130,24 @@
 phy4</t>
   </si>
   <si>
-    <t>ict
-spesh60
-ict2</t>
+    <t>bio
+spesh31
+bio2</t>
   </si>
   <si>
     <t>chem
-spesh44
+spesh43
 chem2</t>
   </si>
   <si>
-    <t>bio
-spesh40
-bio6</t>
-  </si>
-  <si>
-    <t>phy
-spesh20
-phy2</t>
-  </si>
-  <si>
-    <t>art
-spesh72
-art2</t>
-  </si>
-  <si>
-    <t>mus
-spesh56
-mus2</t>
-  </si>
-  <si>
-    <t>bio
-spesh36
-bio4</t>
+    <t>math
+spesh3
+math3</t>
+  </si>
+  <si>
+    <t>geo
+spesh67
+geo3</t>
   </si>
   <si>
     <t>eng
@@ -125,29 +155,54 @@
 eng7</t>
   </si>
   <si>
+    <t>eng
+spesh11
+eng3</t>
+  </si>
+  <si>
+    <t>bio
+spesh35
+bio4</t>
+  </si>
+  <si>
+    <t>math
+spesh7
+math7</t>
+  </si>
+  <si>
+    <t>mus
+spesh55
+mus2</t>
+  </si>
+  <si>
+    <t>art
+spesh71
+art2</t>
+  </si>
+  <si>
     <t>his
 spesh63
 his3</t>
   </si>
   <si>
-    <t>math
-spesh3
-math3</t>
+    <t>phy
+spesh19
+phy2</t>
   </si>
   <si>
     <t>chem
-spesh51
-chem6</t>
-  </si>
-  <si>
-    <t>math
-spesh7
-math7</t>
-  </si>
-  <si>
-    <t>geo
-spesh67
-geo3</t>
+spesh47
+chem4</t>
+  </si>
+  <si>
+    <t>phy
+spesh27
+phy6</t>
+  </si>
+  <si>
+    <t>ict
+spesh59
+ict2</t>
   </si>
   <si>
     <t>phy
@@ -155,39 +210,24 @@
 phy4</t>
   </si>
   <si>
-    <t>ict
-spesh59
-ict2</t>
+    <t>bio
+spesh30
+bio1</t>
   </si>
   <si>
     <t>chem
-spesh43
-chem2</t>
-  </si>
-  <si>
-    <t>bio
-spesh39
-bio6</t>
-  </si>
-  <si>
-    <t>phy
-spesh19
-phy2</t>
-  </si>
-  <si>
-    <t>art
-spesh71
-art2</t>
-  </si>
-  <si>
-    <t>mus
-spesh55
-mus2</t>
-  </si>
-  <si>
-    <t>bio
-spesh35
-bio4</t>
+spesh42
+chem1</t>
+  </si>
+  <si>
+    <t>math
+spesh2
+math2</t>
+  </si>
+  <si>
+    <t>geo
+spesh66
+geo2</t>
   </si>
   <si>
     <t>eng
@@ -195,29 +235,54 @@
 eng6</t>
   </si>
   <si>
+    <t>eng
+spesh10
+eng2</t>
+  </si>
+  <si>
+    <t>bio
+spesh34
+bio3</t>
+  </si>
+  <si>
+    <t>math
+spesh6
+math6</t>
+  </si>
+  <si>
+    <t>mus
+spesh54
+mus1</t>
+  </si>
+  <si>
+    <t>art
+spesh70
+art1</t>
+  </si>
+  <si>
     <t>his
 spesh62
 his2</t>
   </si>
   <si>
-    <t>math
-spesh2
-math2</t>
+    <t>phy
+spesh18
+phy1</t>
   </si>
   <si>
     <t>chem
-spesh50
-chem5</t>
-  </si>
-  <si>
-    <t>math
-spesh6
-math6</t>
-  </si>
-  <si>
-    <t>geo
-spesh66
-geo2</t>
+spesh46
+chem3</t>
+  </si>
+  <si>
+    <t>phy
+spesh26
+phy5</t>
+  </si>
+  <si>
+    <t>ict
+spesh58
+ict1</t>
   </si>
   <si>
     <t>phy
@@ -225,39 +290,24 @@
 phy3</t>
   </si>
   <si>
-    <t>ict
-spesh58
-ict1</t>
+    <t>bio
+spesh29
+bio1</t>
   </si>
   <si>
     <t>chem
-spesh42
+spesh41
 chem1</t>
   </si>
   <si>
-    <t>bio
-spesh38
-bio5</t>
-  </si>
-  <si>
-    <t>phy
-spesh18
-phy1</t>
-  </si>
-  <si>
-    <t>art
-spesh70
-art1</t>
-  </si>
-  <si>
-    <t>mus
-spesh54
-mus1</t>
-  </si>
-  <si>
-    <t>bio
-spesh34
-bio3</t>
+    <t>math
+spesh1
+math1</t>
+  </si>
+  <si>
+    <t>geo
+spesh65
+geo1</t>
   </si>
   <si>
     <t>eng
@@ -265,69 +315,59 @@
 eng5</t>
   </si>
   <si>
+    <t>eng
+spesh9
+eng1</t>
+  </si>
+  <si>
+    <t>bio
+spesh33
+bio3</t>
+  </si>
+  <si>
+    <t>math
+spesh5
+math5</t>
+  </si>
+  <si>
+    <t>mus
+spesh53
+mus1</t>
+  </si>
+  <si>
+    <t>art
+spesh69
+art1</t>
+  </si>
+  <si>
     <t>his
 spesh61
 his1</t>
   </si>
   <si>
-    <t>math
-spesh1
-math1</t>
+    <t>phy
+spesh17
+phy1</t>
   </si>
   <si>
     <t>chem
-spesh49
-chem5</t>
-  </si>
-  <si>
-    <t>math
-spesh5
-math5</t>
-  </si>
-  <si>
-    <t>geo
-spesh65
-geo1</t>
+spesh45
+chem3</t>
+  </si>
+  <si>
+    <t>phy
+spesh25
+phy5</t>
+  </si>
+  <si>
+    <t>ict
+spesh57
+ict1</t>
   </si>
   <si>
     <t>phy
 spesh21
 phy3</t>
-  </si>
-  <si>
-    <t>ict
-spesh57
-ict1</t>
-  </si>
-  <si>
-    <t>chem
-spesh41
-chem1</t>
-  </si>
-  <si>
-    <t>bio
-spesh37
-bio5</t>
-  </si>
-  <si>
-    <t>phy
-spesh17
-phy1</t>
-  </si>
-  <si>
-    <t>art
-spesh69
-art1</t>
-  </si>
-  <si>
-    <t>mus
-spesh53
-mus1</t>
-  </si>
-  <si>
-    <t>bio
-spesh33
-bio3</t>
   </si>
 </sst>
 </file>
@@ -716,16 +756,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1">
@@ -736,7 +776,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -745,7 +785,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1">
@@ -756,16 +796,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1">
@@ -773,19 +813,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1">
@@ -793,19 +833,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -843,19 +883,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1">
@@ -863,19 +903,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1">
@@ -883,19 +923,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1">
@@ -906,16 +946,16 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1">
@@ -926,16 +966,16 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -973,19 +1013,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1">
@@ -993,19 +1033,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1">
@@ -1013,19 +1053,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1">
@@ -1033,19 +1073,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1">
@@ -1053,19 +1093,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1103,19 +1143,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1">
@@ -1123,19 +1163,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
         <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1">
@@ -1143,19 +1183,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
         <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1">
@@ -1163,19 +1203,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1">
@@ -1183,19 +1223,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1236,16 +1276,16 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1">
@@ -1256,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1265,7 +1305,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" customHeight="1">
@@ -1276,16 +1316,16 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1">
@@ -1293,19 +1333,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1">
@@ -1313,19 +1353,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
